--- a/Structure/0 - COVID/Survey/Data/Survey.xlsx
+++ b/Structure/0 - COVID/Survey/Data/Survey.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/0 - COVID/Hidden/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48530ed5e3c44a15/Documents/GitHub/Scottish-Energy-Statistics-Hub/Structure/0 - COVID/Survey/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="118" documentId="8_{AFF856A5-58D4-4DF6-AD20-29DB54EEBDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B88D7E2B-7483-4D9F-B94F-7C9FF3811920}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="8_{AFF856A5-58D4-4DF6-AD20-29DB54EEBDD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3F4C71D6-79CA-40EC-9387-767828499D5A}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="15855" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{D7C2410D-F447-421F-B287-12C84E7211F4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D7C2410D-F447-421F-B287-12C84E7211F4}"/>
   </bookViews>
   <sheets>
     <sheet name="T29" sheetId="1" r:id="rId1"/>
-    <sheet name="T54" sheetId="2" r:id="rId2"/>
-    <sheet name="T62" sheetId="3" r:id="rId3"/>
-    <sheet name="T66" sheetId="4" r:id="rId4"/>
-    <sheet name="T70" sheetId="5" r:id="rId5"/>
+    <sheet name="T29B" sheetId="6" r:id="rId2"/>
+    <sheet name="T54" sheetId="2" r:id="rId3"/>
+    <sheet name="T62" sheetId="3" r:id="rId4"/>
+    <sheet name="T66" sheetId="4" r:id="rId5"/>
+    <sheet name="T70" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>Don't know</t>
   </si>
@@ -109,12 +110,6 @@
     <t>None of these</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Your energy supplier</t>
   </si>
   <si>
@@ -133,9 +128,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Have you received any information from your electricity and gas supplier, such as a letter in the post, email or text, about what they're doing to manage their operations and customer service while people are socially distancing?</t>
-  </si>
-  <si>
     <t>Useful</t>
   </si>
   <si>
@@ -161,6 +153,21 @@
   </si>
   <si>
     <t>I can't remember what it said</t>
+  </si>
+  <si>
+    <t>I'm worried about building up energy debt</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Total Agree</t>
   </si>
 </sst>
 </file>
@@ -522,15 +529,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D010FD03-4C44-4DE4-99F2-1D1C1F69A0E8}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="105.54296875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -552,144 +562,194 @@
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.09</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="F2" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.16</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
       <c r="B3" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="C3" s="1">
-        <v>0.27</v>
+        <v>0.19</v>
       </c>
       <c r="D3" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="1">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="F3" s="1">
         <v>0.22</v>
       </c>
       <c r="G3" s="1">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.03</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1">
-        <v>0.32</v>
+        <v>0.06</v>
       </c>
       <c r="C4" s="1">
-        <v>0.06</v>
+        <v>0.15</v>
       </c>
       <c r="D4" s="1">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E4" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="H4" s="1">
         <v>0.21</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.38</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>0.28999999999999998</v>
+        <v>0.12</v>
       </c>
       <c r="C5" s="1">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="D5" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.02</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.08</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C8" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="1">
         <v>0.11</v>
       </c>
-      <c r="E5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.13</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.26</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.08</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.06</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.01</v>
-      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -697,204 +757,348 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1234FE-C9DE-4225-ADDF-39A17BA2F3F5}">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D89D8D27-4980-4ECC-A036-F27A73C54052}">
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="51.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.57000000000000006</v>
+      </c>
+      <c r="C2">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C3">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B4">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.38</v>
+      </c>
+      <c r="C4">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.38</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.23</v>
+      </c>
+      <c r="C6">
+        <v>0.12000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>0.88</v>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="C7">
+        <v>0.11000000000000001</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B11">
-    <sortCondition descending="1" ref="B2:B11"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0E55F-4DAF-4AF8-9E4F-4DCCA08325B0}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1234FE-C9DE-4225-ADDF-39A17BA2F3F5}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="120.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.01</v>
+      </c>
+      <c r="C3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="B4">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>0.92</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.06</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.03</v>
+      </c>
+      <c r="C6">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>0.02</v>
+      </c>
+      <c r="C7">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>0.02</v>
+      </c>
+      <c r="C8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.01</v>
+      </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>0.88</v>
+      </c>
+      <c r="C12">
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
-    <sortCondition descending="1" ref="B2:B4"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C11">
+    <sortCondition descending="1" ref="C2:C11"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EBBC83-9909-419D-B2E5-77E3D3347DEA}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E0E55F-4DAF-4AF8-9E4F-4DCCA08325B0}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="14.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>0.02</v>
+      </c>
+      <c r="C2">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>0.05</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>0.01</v>
+      </c>
+      <c r="C4">
+        <f>1-C5-C2-C3</f>
+        <v>9.9999999999999603E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5">
+        <v>0.92</v>
+      </c>
+      <c r="C5">
+        <v>0.92</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C4">
+    <sortCondition descending="1" ref="C2:C4"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1EBBC83-9909-419D-B2E5-77E3D3347DEA}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -902,7 +1106,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0.33</v>
@@ -912,6 +1116,20 @@
       </c>
       <c r="D2">
         <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>0.42</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>0.08</v>
       </c>
     </row>
   </sheetData>
@@ -919,107 +1137,144 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDF335A-2B8C-4E1E-A367-EB85ED19538E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+      <c r="C1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B2">
         <v>0.74</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B3">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B4">
+        <v>0.59</v>
+      </c>
+      <c r="C4">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5">
-        <v>0.59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B7">
         <v>0.26</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B8">
         <v>7.0000000000000007E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>23</v>
       </c>
       <c r="B11">
         <v>0.01</v>
       </c>
+      <c r="C11">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B10">
-    <sortCondition descending="1" ref="B2:B10"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C9">
+    <sortCondition descending="1" ref="C2:C9"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
